--- a/guide41_file.xlsx
+++ b/guide41_file.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\guide_dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3A9FEE-DBFE-4842-8171-D3267AFA91D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDE9A60-F619-44B6-A10A-8409DF1779AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="p1" sheetId="7" r:id="rId1"/>
+    <sheet name="index" sheetId="8" r:id="rId1"/>
+    <sheet name="p1" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>header1</t>
   </si>
@@ -469,12 +470,47 @@
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>広大moodle 教職員向けマニュアル _授業資料</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒロダイ </t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キョウショクイン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シリョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>授業資料</t>
+    <rPh sb="0" eb="4">
+      <t>ジュギョウシリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h3&gt;授業資料&lt;/h3&gt;&lt;br&gt;
+学生に資料を提示するために PDF や Word、Excel ファイル等をコースに掲載できます。&lt;br &gt;
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,6 +573,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -560,7 +603,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -593,6 +636,13 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -907,11 +957,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD2C511-E5C4-4E4C-8B03-4B88C54ACD1E}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+    </row>
+    <row r="5" spans="1:2" ht="54">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="54">
+      <c r="B6" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AB5327-E917-4FC1-87EA-50E5E24BBDE2}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/guide41_file.xlsx
+++ b/guide41_file.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDE9A60-F619-44B6-A10A-8409DF1779AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF206F0-5F73-451F-BAAB-436F1835989C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="4" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
     <sheet name="p1" sheetId="7" r:id="rId2"/>
+    <sheet name="p2" sheetId="9" r:id="rId3"/>
+    <sheet name="p3" sheetId="10" r:id="rId4"/>
+    <sheet name="p4" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
   <si>
     <t>header1</t>
   </si>
@@ -43,9 +46,6 @@
     <t>fresta</t>
   </si>
   <si>
-    <t>授業資料</t>
-  </si>
-  <si>
     <t>ダイアログから［ファイル］を選択します</t>
   </si>
   <si>
@@ -80,10 +80,6 @@
   </si>
   <si>
     <t>［保存してコースに戻る］をクリックしコースを確認します</t>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="File deletion"&gt;&lt;/a&gt;ファイルの削除&lt;/h4&gt;</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>&lt;h4&gt;&lt;a name="file update"&gt;&lt;/a&gt;ファイルの更新&lt;/h4&gt;</t>
@@ -190,280 +186,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【編集中】</t>
-    <rPh sb="1" eb="4">
-      <t>ヘンシュウチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;&lt;a name="activity resourse"&gt;&lt;/a&gt;コースへ追加できる活動とリソースの一覧&lt;/h3&gt;</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;&lt;a name="file"&gt;&lt;/a&gt;ファイルを公開する&lt;/h3&gt;</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;&lt;a name="folder"&gt;&lt;/a&gt;フォルダを作成する&lt;/h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;
-複数のファイルを 1 つにまとめて掲載できる機能です。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;&lt;a name="Publishing files"&gt;&lt;/a&gt;公開したファイルを更新または削除する&lt;/h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <rPh sb="49" eb="51">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>学生に資料を提示するために PDF や Word、Excel ファイル等をコースに掲載できます。
-&lt;ul&gt;
-&lt;li&gt;&lt;a href="#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>activity resourse</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"&gt;コースへ追加できる活動とリソースの一覧&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a href="#file"&gt;ファイルを公開する&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a href="#f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ile del</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">"&gt;公開したファイルを削除または更新する&lt;/a&gt;
-&lt;ul&gt;
-    &lt;li&gt;&lt;a href="#file </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>deletion</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">"&gt;ファイルの削除&lt;/a&gt;&lt;/li&gt;
-    &lt;li&gt;&lt;a href="#file </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>update</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"&gt;ファイルの更新&lt;/a&gt;&lt;/li&gt;
-  &lt;/ul&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a href="#f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>older</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"&gt;フォルダを作成する&lt;/a&gt;&lt;/li&gt;
-&lt;/ul&gt;</t>
-    </r>
-    <rPh sb="245" eb="247">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>広大moodle マニュアル guide41-file</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ヒロダイ </t>
@@ -505,12 +227,28 @@
 </t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>コースへ追加できる活動とリソースの一覧</t>
+  </si>
+  <si>
+    <t>ファイルを公開する</t>
+  </si>
+  <si>
+    <t>公開したファイルを削除または更新する</t>
+  </si>
+  <si>
+    <t>フォルダを作成する</t>
+  </si>
+  <si>
+    <t>複数のファイルを 1 つにまとめて掲載できる機能です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,13 +290,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -622,7 +353,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -634,11 +365,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -960,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD2C511-E5C4-4E4C-8B03-4B88C54ACD1E}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -975,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -983,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -991,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1001,12 +732,12 @@
     <row r="5" spans="1:2" ht="54">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="54">
       <c r="B6" s="12" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1021,10 +752,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AB5327-E917-4FC1-87EA-50E5E24BBDE2}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="9" style="7"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52306AB-B17C-4DD0-8E20-460E50B24837}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1047,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1063,267 +852,71 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:4" ht="174.75">
+    <row r="6" spans="1:4" ht="18.75">
       <c r="A6" s="3"/>
       <c r="B6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="18.75">
       <c r="A7" s="3"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="40.5">
       <c r="A8" s="3"/>
-      <c r="B8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="18.75">
       <c r="A9" s="3"/>
-      <c r="B9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="18.75">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="151.5">
       <c r="A10" s="3"/>
-      <c r="B10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="18.75">
-      <c r="A12" s="3"/>
-      <c r="B12" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.75">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="40.5">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="C10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18.75">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="151.5">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3"/>
-      <c r="B17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" ht="18.75">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" ht="18.75">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18.75">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3"/>
-      <c r="B21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="18.75">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18.75">
-      <c r="A25" s="3"/>
-      <c r="B25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="18.75">
-      <c r="B26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="B27" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="32.25">
-      <c r="B28" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="B29" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="18.75">
-      <c r="B30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="18.75">
-      <c r="B31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="18.75">
-      <c r="B32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1333,16 +926,264 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FEB33C-1C1E-4E1E-85B1-4A56C60474FF}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="9" style="7"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" ht="18.75">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75">
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A66F88-51A2-4AFB-BE02-34D72203F5FD}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="9" style="7"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75">
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75">
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75">
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -1591,6 +1432,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1610,14 +1460,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1636,6 +1478,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>

--- a/guide41_file.xlsx
+++ b/guide41_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF206F0-5F73-451F-BAAB-436F1835989C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09D0A50-215B-40BC-BC80-65AACD082F10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="4" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -810,10 +810,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52306AB-B17C-4DD0-8E20-460E50B24837}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -855,67 +855,71 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="18.75">
       <c r="A5" s="3"/>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" ht="18.75">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="3"/>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="18.75">
       <c r="A7" s="3"/>
       <c r="B7" s="5" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="40.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75">
       <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="40.5">
       <c r="A9" s="3"/>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="151.5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75">
       <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
-        <v>20</v>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="151.5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -928,10 +932,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FEB33C-1C1E-4E1E-85B1-4A56C60474FF}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -973,98 +977,102 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="18.75">
       <c r="A5" s="3"/>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" ht="18.75">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="3"/>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="9"/>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="18.75">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" ht="18.75">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18.75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75">
       <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75">
+      <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75">
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="2" t="s">
+    <row r="16" spans="1:4">
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1077,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A66F88-51A2-4AFB-BE02-34D72203F5FD}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1122,57 +1130,61 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="18.75">
       <c r="A5" s="3"/>
-      <c r="B5" s="5"/>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.75">
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75">
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75">
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="2" t="s">
+    <row r="12" spans="1:4">
+      <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1184,6 +1196,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -1432,34 +1471,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1476,23 +1507,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/guide41_file.xlsx
+++ b/guide41_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09D0A50-215B-40BC-BC80-65AACD082F10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA1A57F-D8DD-4B3A-B518-E04D033EFE72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="4" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t>header1</t>
   </si>
@@ -196,9 +196,6 @@
     <t>index</t>
   </si>
   <si>
-    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
-  </si>
-  <si>
     <t>広大moodle 教職員向けマニュアル _授業資料</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ヒロダイ </t>
@@ -228,9 +225,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コースへ追加できる活動とリソースの一覧</t>
-  </si>
-  <si>
     <t>ファイルを公開する</t>
   </si>
   <si>
@@ -241,6 +235,24 @@
   </si>
   <si>
     <t>複数のファイルを 1 つにまとめて掲載できる機能です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/mdl:guide41:top" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在作成中です。
+順次公開いたしますので、公開前のページについては過去のマニュアルを参照してください。
+■過去のマニュアル
+https://support.vle.hiroshima-u.ac.jp/files/public/hirodai-moodle-faculty-document-20230306.pdf</t>
+    <rPh sb="53" eb="55">
+      <t>カコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コースへ追加できる活動とリソースの一覧【準備中】</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -334,7 +346,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -373,6 +385,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -692,7 +707,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -706,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -722,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -732,12 +747,12 @@
     <row r="5" spans="1:2" ht="54">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="54">
       <c r="B6" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -752,10 +767,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AB5327-E917-4FC1-87EA-50E5E24BBDE2}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -778,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -800,6 +815,11 @@
     <row r="5" spans="1:2">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
+    </row>
+    <row r="7" spans="1:2" ht="54">
+      <c r="B7" s="14" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -813,7 +833,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -836,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -958,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1088,7 +1108,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1111,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1140,7 +1160,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="8"/>
@@ -1196,6 +1216,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
@@ -1211,15 +1240,6 @@
     <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1472,20 +1492,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
     <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/guide41_file.xlsx
+++ b/guide41_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA1A57F-D8DD-4B3A-B518-E04D033EFE72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B5780B-8757-46FD-BBC4-4653A3DB7A67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="4" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -55,9 +55,6 @@
     <t>編集モードを開始します</t>
   </si>
   <si>
-    <t>ファイルの［編集］▼をクリックし、メニューから［削除］をクリックします</t>
-  </si>
-  <si>
     <t>ダイアログが表示されるので［Yes］をクリックして削除します。</t>
   </si>
   <si>
@@ -80,58 +77,10 @@
   </si>
   <si>
     <t>［保存してコースに戻る］をクリックしコースを確認します</t>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="file update"&gt;&lt;/a&gt;ファイルの更新&lt;/h4&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>編集モードを開始し、ファイルを掲載したいセクションの［+ 活動またはリソースを追加する］をクリックします</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ファイルの設定画面で、ファイルの名称を入力します
 ※ ファイルとともに説明を提示したい場合は、説明を入力し、［コースページに説明を表示する］にチェックを入れます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>moodle では教材の公開にあたって、公開対象者を制限したり、学生が教材を利用したかどうかを記録するように設定することができます。
-そのような設定をされたい場合は、「13. 利用制限と活動完了」を参照してください。
-またアップロード後のファイルについて再編集をしたい場合は、そのファイルの［編集］</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>▼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>をクリックし、表示されたメニューから操作を選んでください。
-設定を編集する：5.1.1 同様
-右へ：右にインデントします
-非表示：学生から非表示にします
-複製：設定を複製します
-ロールを割り当てる：ロールを割り当てます
-削除：ファイルを削除します</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>更新したいファイルのメニューで［設定を編集する］を選択します</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -253,6 +202,105 @@
   </si>
   <si>
     <t>コースへ追加できる活動とリソースの一覧【準備中】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集モードを開始し、ファイルを掲載したいセクション名をクリックし、［+ 活動またはリソースを追加する］をクリックします</t>
+    <rPh sb="25" eb="26">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>アップロード後のファイルについて再編集をしたい場合は、そのファイルの三点メニューをクリックし、表示されたメニューから操作を選んでください。
+設定を編集する：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[3]-[4]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>同様
+右へ：右にインデントします
+非表示：学生から非表示にします
+複製：設定を複製します
+ロールを割り当てる：ロールを割り当てます
+削除：ファイルを削除します</t>
+    </r>
+    <rPh sb="34" eb="36">
+      <t>サンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルの三点メニューをクリックし、メニューから［削除］をクリックします</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新したいファイルの三点メニューで［設定を編集する］を選択します</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;&lt;a name="file update"&gt;&lt;/a&gt;ファイルの更新&lt;/h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -306,12 +354,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -320,6 +362,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -365,7 +414,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -377,17 +426,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -707,7 +756,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -721,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -729,7 +778,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -737,7 +786,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -747,12 +796,12 @@
     <row r="5" spans="1:2" ht="54">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="54">
       <c r="B6" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -770,7 +819,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -793,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -809,7 +858,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -818,7 +867,7 @@
     </row>
     <row r="7" spans="1:2" ht="54">
       <c r="B7" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +882,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -856,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -872,7 +921,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75">
@@ -883,16 +932,16 @@
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:4" ht="18.75">
+    <row r="7" spans="1:4" ht="27">
       <c r="A7" s="3"/>
       <c r="B7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75">
@@ -901,22 +950,22 @@
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40.5">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
@@ -925,22 +974,22 @@
         <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="151.5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="113.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -955,7 +1004,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -978,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -994,7 +1043,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75">
@@ -1015,31 +1064,31 @@
     <row r="8" spans="1:4" ht="18.75">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75">
       <c r="A10" s="3"/>
       <c r="B10" s="5" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="8"/>
@@ -1053,47 +1102,47 @@
     <row r="12" spans="1:4">
       <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75">
       <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1108,7 +1157,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1131,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1147,21 +1196,21 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.75">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="3"/>
-      <c r="B5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="B7" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="B7" s="5"/>
       <c r="C7" s="3"/>
       <c r="D7" s="8"/>
     </row>
@@ -1172,40 +1221,40 @@
     </row>
     <row r="9" spans="1:4" ht="18.75">
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1216,33 +1265,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -1491,10 +1513,48 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1511,20 +1571,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/guide41_file.xlsx
+++ b/guide41_file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B5780B-8757-46FD-BBC4-4653A3DB7A67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44098199-BA3B-4DFD-BCEA-99592CC0D0FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="4" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
   <si>
     <t>header1</t>
   </si>
@@ -301,6 +301,55 @@
       </rPr>
       <t>&gt;</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;&lt;a name="file delete"&gt;&lt;/a&gt;ファイルの削除&lt;/h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <rPh sb="35" eb="37">
+      <t>サクジョ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -755,9 +804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD2C511-E5C4-4E4C-8B03-4B88C54ACD1E}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -1001,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FEB33C-1C1E-4E1E-85B1-4A56C60474FF}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1056,92 +1103,100 @@
     </row>
     <row r="7" spans="1:4" ht="18.75">
       <c r="A7" s="3"/>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="9"/>
+      <c r="B7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" ht="18.75">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>23</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" ht="18.75">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="A10" s="3"/>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75">
+      <c r="A11" s="3"/>
+      <c r="B11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
+      <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75">
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="2" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1156,7 +1211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A66F88-51A2-4AFB-BE02-34D72203F5FD}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1265,6 +1320,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -1513,34 +1595,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1557,23 +1631,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/guide41_file.xlsx
+++ b/guide41_file.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44098199-BA3B-4DFD-BCEA-99592CC0D0FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FFD3F8-DD88-4841-A5B7-DCACE91368F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
-    <sheet name="p1" sheetId="7" r:id="rId2"/>
-    <sheet name="p2" sheetId="9" r:id="rId3"/>
+    <sheet name="p2" sheetId="9" r:id="rId2"/>
+    <sheet name="p1" sheetId="7" r:id="rId3"/>
     <sheet name="p3" sheetId="10" r:id="rId4"/>
     <sheet name="p4" sheetId="11" r:id="rId5"/>
   </sheets>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
   <si>
     <t>header1</t>
   </si>
@@ -49,9 +49,6 @@
     <t>ダイアログから［ファイル］を選択します</t>
   </si>
   <si>
-    <t>ファイルをドラッグ＆ドロップし、［保存してコースに戻る］をクリックします</t>
-  </si>
-  <si>
     <t>編集モードを開始します</t>
   </si>
   <si>
@@ -77,11 +74,6 @@
   </si>
   <si>
     <t>［保存してコースに戻る］をクリックしコースを確認します</t>
-  </si>
-  <si>
-    <t>ファイルの設定画面で、ファイルの名称を入力します
-※ ファイルとともに説明を提示したい場合は、説明を入力し、［コースページに説明を表示する］にチェックを入れます。</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>chartn</t>
@@ -208,41 +200,6 @@
     <t>編集モードを開始し、ファイルを掲載したいセクション名をクリックし、［+ 活動またはリソースを追加する］をクリックします</t>
     <rPh sb="25" eb="26">
       <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>アップロード後のファイルについて再編集をしたい場合は、そのファイルの三点メニューをクリックし、表示されたメニューから操作を選んでください。
-設定を編集する：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>[3]-[4]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>同様
-右へ：右にインデントします
-非表示：学生から非表示にします
-複製：設定を複製します
-ロールを割り当てる：ロールを割り当てます
-削除：ファイルを削除します</t>
-    </r>
-    <rPh sb="34" eb="36">
-      <t>サンテン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -350,6 +307,67 @@
     <rPh sb="35" eb="37">
       <t>サクジョ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルをドラッグ＆ドロップします</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>アップロード後のファイルについて再編集をしたい場合は、そのファイルの三点メニューをクリックし、表示されたメニューから操作を選んでください
+設定を編集する：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[3]-[4]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>同様
+右へ：右にインデントします
+非表示：学生から非表示にします
+複製：設定を複製します
+ロールを割り当てる：ロールを割り当てます
+削除：ファイルを削除します</t>
+    </r>
+    <rPh sb="34" eb="36">
+      <t>サンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルの設定画面で、ファイルの名称を入力します
+※ ファイルとともに説明を提示したい場合は、説明を入力し、［コースページに説明を表示する］にチェックを入れます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>［保存してコースに戻る］をクリックします</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;アピアランス
+の[表示]を[新しいウィンドウ]に変更します</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>file11.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>file12.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -804,7 +822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD2C511-E5C4-4E4C-8B03-4B88C54ACD1E}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -817,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -825,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -833,7 +851,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -843,12 +861,12 @@
     <row r="5" spans="1:2" ht="54">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="54">
       <c r="B6" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -862,73 +880,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AB5327-E917-4FC1-87EA-50E5E24BBDE2}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52306AB-B17C-4DD0-8E20-460E50B24837}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="9" style="7"/>
-    <col min="5" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.75">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="7" spans="1:2" ht="54">
-      <c r="B7" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52306AB-B17C-4DD0-8E20-460E50B24837}">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -952,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -968,7 +923,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75">
@@ -982,13 +937,13 @@
     <row r="7" spans="1:4" ht="27">
       <c r="A7" s="3"/>
       <c r="B7" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75">
@@ -997,46 +952,133 @@
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40.5">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="A10" s="3"/>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
+      <c r="B10" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="113.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>22</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="113.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AB5327-E917-4FC1-87EA-50E5E24BBDE2}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="9" style="7"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="7" spans="1:2" ht="54">
+      <c r="B7" s="14" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1074,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1090,7 +1132,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75">
@@ -1104,7 +1146,7 @@
     <row r="7" spans="1:4" ht="18.75">
       <c r="A7" s="3"/>
       <c r="B7" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="8"/>
@@ -1112,38 +1154,38 @@
     <row r="8" spans="1:4" ht="18.75">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" ht="18.75">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="A11" s="3"/>
       <c r="B11" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="8"/>
@@ -1151,53 +1193,53 @@
     <row r="12" spans="1:4">
       <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75">
       <c r="B16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1235,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1251,13 +1293,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3"/>
       <c r="B5" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1271,45 +1313,45 @@
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75">
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="D11" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1329,24 +1371,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -1595,6 +1619,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
@@ -1604,17 +1646,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1631,4 +1662,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/guide41_file.xlsx
+++ b/guide41_file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FFD3F8-DD88-4841-A5B7-DCACE91368F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238B0161-5C80-4893-9F88-989E036368C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -358,16 +358,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&gt;アピアランス
-の[表示]を[新しいウィンドウ]に変更します</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>file11.png</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>file12.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>［アピアランス］の［表示］を［新しいウィンドウ］に変更します</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -883,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52306AB-B17C-4DD0-8E20-460E50B24837}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -982,16 +981,16 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="27">
+    <row r="11" spans="1:4" ht="18.75">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75">
@@ -1003,7 +1002,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="113.25">
@@ -1362,12 +1361,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1620,27 +1628,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1665,12 +1667,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>